--- a/REGULAR/PICNIC GROVE/MENDOZA, JUANITO.xlsx
+++ b/REGULAR/PICNIC GROVE/MENDOZA, JUANITO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1295,10 +1295,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>184.322</v>
+        <v>198.072</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1467,7 +1467,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.875</v>
+        <v>193.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2959,15 +2959,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>44927</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -2975,15 +2979,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44958</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -2991,15 +2999,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>44986</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -3007,15 +3019,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45017</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3023,15 +3039,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45047</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -3039,15 +3059,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45078</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -3055,15 +3079,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45108</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -3071,15 +3099,19 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45139</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -3087,15 +3119,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45170</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -3103,15 +3139,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45200</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3119,15 +3159,19 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45231</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -3135,7 +3179,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45261</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3151,7 +3197,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45292</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3167,7 +3215,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45323</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3183,7 +3233,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45352</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3199,7 +3251,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45383</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3215,7 +3269,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45413</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3231,7 +3287,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45444</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3247,7 +3305,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45474</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3263,7 +3323,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45505</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3279,7 +3341,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45536</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3295,7 +3359,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45566</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3311,7 +3377,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45597</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3327,7 +3395,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45627</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3343,7 +3413,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45658</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3359,7 +3431,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45689</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3375,7 +3449,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45717</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3391,7 +3467,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45748</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3407,7 +3485,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45778</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3423,7 +3503,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45809</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3439,7 +3521,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45839</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3455,7 +3539,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45870</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3471,7 +3557,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45901</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3487,7 +3575,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45931</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3503,7 +3593,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45962</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3519,7 +3611,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45992</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3535,7 +3629,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>46023</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3551,7 +3647,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>46054</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3882,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -4009,7 +4107,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>364.197</v>
+        <v>391.697</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
